--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1861865.564322118</v>
+        <v>1857709.378014152</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>340.7795019447405</v>
+        <v>405.2685620916635</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>16.36089152870251</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>172.736146193051</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>21.96651186516759</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>255.6929381447002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>100.5827519824193</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>206.9271060113725</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>83.00130076681299</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>248.6053471821649</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>60.86538463674658</v>
       </c>
       <c r="H10" t="n">
-        <v>80.81876101986235</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,19 +1584,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>7.069540131684477</v>
       </c>
       <c r="V13" t="n">
-        <v>193.9313104494236</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>11.56087338713365</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>44.30292280757614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>104.7777418077832</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>32.57570591153918</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>105.5373371683561</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,16 +3006,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>134.0367616438387</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>46.52295781333198</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>91.87132188694045</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>117.4765410832882</v>
+        <v>139.593005428874</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>98.95095262166147</v>
+        <v>198.7323644553051</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>45.17596778975034</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
-        <v>102.3739644559489</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1862.776021816666</v>
+        <v>1279.054603647807</v>
       </c>
       <c r="C2" t="n">
-        <v>1862.776021816666</v>
+        <v>1279.054603647807</v>
       </c>
       <c r="D2" t="n">
-        <v>1504.510323209916</v>
+        <v>1279.054603647807</v>
       </c>
       <c r="E2" t="n">
-        <v>1118.722070611672</v>
+        <v>1279.054603647807</v>
       </c>
       <c r="F2" t="n">
-        <v>707.7361658220641</v>
+        <v>868.0686988581999</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859626</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520161</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719102</v>
+        <v>928.7179450719127</v>
       </c>
       <c r="M2" t="n">
-        <v>1224.788511629511</v>
+        <v>1569.741154691807</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.263617865094</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1805.379837181727</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2324.264885560596</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4357,25 +4357,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2236.241780077746</v>
+        <v>2336.351904522572</v>
       </c>
       <c r="V2" t="n">
-        <v>2236.241780077746</v>
+        <v>2005.289017179001</v>
       </c>
       <c r="W2" t="n">
-        <v>2236.241780077746</v>
+        <v>1652.520361908887</v>
       </c>
       <c r="X2" t="n">
-        <v>1862.776021816666</v>
+        <v>1279.054603647807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1862.776021816666</v>
+        <v>1279.054603647807</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.890208309364</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.437179028237</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669858</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615303</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884153</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>401.1268778634577</v>
+        <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>610.7177511162872</v>
+        <v>669.9499323155136</v>
       </c>
       <c r="M3" t="n">
-        <v>874.6572826117733</v>
+        <v>1123.044995703283</v>
       </c>
       <c r="N3" t="n">
-        <v>1515.680492231667</v>
+        <v>1408.378866136616</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067087</v>
+        <v>2037.107513972037</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028121</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
-        <v>1533.717344299919</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1325.865844094386</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.32600838211519</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C4" t="n">
-        <v>68.32600838211519</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D4" t="n">
-        <v>68.32600838211519</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E4" t="n">
-        <v>68.32600838211519</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
         <v>51.79985532281972</v>
@@ -4488,52 +4488,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.06568235322</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473328</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>477.9640241103722</v>
+        <v>1021.785139324162</v>
       </c>
       <c r="X4" t="n">
-        <v>249.9744732123549</v>
+        <v>1021.785139324162</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.9744732123549</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1282.388778642423</v>
+        <v>2203.392926076864</v>
       </c>
       <c r="C5" t="n">
-        <v>913.4262617020113</v>
+        <v>1834.430409136452</v>
       </c>
       <c r="D5" t="n">
-        <v>555.1605630952608</v>
+        <v>1476.164710529702</v>
       </c>
       <c r="E5" t="n">
-        <v>555.1605630952608</v>
+        <v>1090.376457931457</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>679.3905531418498</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719912</v>
@@ -4567,25 +4567,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104791</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135523</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961805</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>1672.528110618235</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W5" t="n">
-        <v>1672.528110618235</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="X5" t="n">
-        <v>1672.528110618235</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="Y5" t="n">
-        <v>1282.388778642423</v>
+        <v>2589.992766140986</v>
       </c>
     </row>
     <row r="6">
@@ -4631,43 +4631,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>573.7192355186012</v>
       </c>
       <c r="L6" t="n">
-        <v>942.9699568457228</v>
+        <v>871.0311846349159</v>
       </c>
       <c r="M6" t="n">
-        <v>1309.275846338048</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>603.0000985203872</v>
+        <v>370.8526776630624</v>
       </c>
       <c r="C7" t="n">
-        <v>603.0000985203872</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D7" t="n">
-        <v>452.8834591080514</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>452.8834591080514</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>305.9935116101411</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>305.9935116101411</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1321.927733452885</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1032.809956463283</v>
+        <v>1545.384930777697</v>
       </c>
       <c r="V7" t="n">
-        <v>1032.809956463283</v>
+        <v>1290.70044257181</v>
       </c>
       <c r="W7" t="n">
-        <v>1032.809956463283</v>
+        <v>1001.28327253485</v>
       </c>
       <c r="X7" t="n">
-        <v>823.7926776639173</v>
+        <v>773.2937216368322</v>
       </c>
       <c r="Y7" t="n">
-        <v>603.0000985203872</v>
+        <v>552.501142493302</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2075.676253584919</v>
+        <v>755.9562932262875</v>
       </c>
       <c r="C8" t="n">
-        <v>1991.836555840663</v>
+        <v>386.9937762858758</v>
       </c>
       <c r="D8" t="n">
-        <v>1633.570857233913</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="E8" t="n">
-        <v>1247.782604635669</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
         <v>447.8319447135512</v>
@@ -4813,7 +4813,7 @@
         <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.815585560731</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.815585560731</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.815585560731</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.676253584919</v>
+        <v>1142.556133290409</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.946747225829</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>942.969956845723</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1470.397510810264</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136006</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>431.4647004588237</v>
+        <v>727.1359052451301</v>
       </c>
       <c r="C10" t="n">
-        <v>431.4647004588237</v>
+        <v>558.1997223172232</v>
       </c>
       <c r="D10" t="n">
-        <v>281.3480610464879</v>
+        <v>408.0830829048874</v>
       </c>
       <c r="E10" t="n">
-        <v>133.4349674640948</v>
+        <v>260.1699893224943</v>
       </c>
       <c r="F10" t="n">
-        <v>133.4349674640948</v>
+        <v>113.2800418245839</v>
       </c>
       <c r="G10" t="n">
-        <v>133.4349674640948</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
         <v>51.79985532281972</v>
@@ -4962,25 +4962,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4992,22 +4992,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.04909569586</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.931318706258</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2468305003712</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2468305003712</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2572796023538</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>431.4647004588237</v>
+        <v>908.7843700753698</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687974</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854703</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V13" t="n">
-        <v>1492.495641279528</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W13" t="n">
-        <v>1203.078471242567</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990371</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>247.2061440917674</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>105.4943129339655</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1643.635426776346</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1354.218256739386</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.21291626627</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2074.122646505557</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2497.745796000625</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5737,13 +5737,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5977,16 +5977,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>962.6357307816187</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.284195611858</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6305,25 +6305,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.6442739835331</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2090.45917461044</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1801.383947954638</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1546.699459748751</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1257.28228971179</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1029.292738813773</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813773</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1842.070412183399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.385923977512</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3266.400361191265</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4440.9326143059</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>4186.248126100013</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3896.830956063052</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3668.841405165035</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3448.048826021505</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703114</v>
+        <v>1097.958364892466</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424045</v>
+        <v>929.022181964559</v>
       </c>
       <c r="D37" t="n">
-        <v>526.5658826424045</v>
+        <v>778.9055425522232</v>
       </c>
       <c r="E37" t="n">
-        <v>526.5658826424045</v>
+        <v>630.9924489698301</v>
       </c>
       <c r="F37" t="n">
-        <v>379.6759351444941</v>
+        <v>484.1025014719197</v>
       </c>
       <c r="G37" t="n">
-        <v>212.4798358593741</v>
+        <v>316.9064021867997</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,7 +7186,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356194</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>251.5626541092265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2334.285089135946</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1055.185257670615</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>886.249074742708</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>736.1324353303722</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>588.2193417479791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1685.615852542402</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1457.626301644385</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1236.833722500854</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037413</v>
+        <v>407.4751802037393</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942333</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>138.4934316048494</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>165.1317366276123</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>204.6347509527571</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>191.0661938305875</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945077</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>148.4266296017855</v>
       </c>
       <c r="L6" t="n">
-        <v>347.1830914177569</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>162.7491560325414</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177568</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>162.7491560325407</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906576</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-1.048100336096456e-12</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-8.207266606532238e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.1149342575596</v>
       </c>
       <c r="V13" t="n">
-        <v>58.20633287440438</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>181.406732581461</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>111.8681131589321</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>152.1477127454055</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>205.614685510496</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>75.37549921168738</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>22.81817176293568</v>
+        <v>0.7017074173498941</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>119.6337007304333</v>
+        <v>19.8522888967897</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>135.8503182118943</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
-        <v>43.04708356698238</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>916269.5761914153</v>
+        <v>916269.576191415</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>893263.3104955617</v>
+        <v>893263.3104955618</v>
       </c>
     </row>
     <row r="5">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>873172.0903518676</v>
+        <v>873172.0903518677</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907537</v>
       </c>
       <c r="K2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="O2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907544</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907539</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457504</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.48053169503</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-634610.6549291559</v>
+        <v>-634610.6549291577</v>
       </c>
       <c r="C6" t="n">
-        <v>158890.9907817387</v>
+        <v>158890.9907817413</v>
       </c>
       <c r="D6" t="n">
-        <v>331655.3505716332</v>
+        <v>331655.3505716336</v>
       </c>
       <c r="E6" t="n">
-        <v>-63474.92331059837</v>
+        <v>-63822.30256495609</v>
       </c>
       <c r="F6" t="n">
-        <v>437413.9444351516</v>
+        <v>437066.5651807949</v>
       </c>
       <c r="G6" t="n">
-        <v>437413.9444351519</v>
+        <v>437066.5651807945</v>
       </c>
       <c r="H6" t="n">
-        <v>437413.9444351518</v>
+        <v>437066.565180795</v>
       </c>
       <c r="I6" t="n">
-        <v>437413.9444351516</v>
+        <v>437066.565180795</v>
       </c>
       <c r="J6" t="n">
-        <v>267999.9276091034</v>
+        <v>267652.5483547465</v>
       </c>
       <c r="K6" t="n">
-        <v>437413.9444351517</v>
+        <v>437066.565180795</v>
       </c>
       <c r="L6" t="n">
-        <v>437413.9444351516</v>
+        <v>437066.5651807947</v>
       </c>
       <c r="M6" t="n">
-        <v>306529.4875309167</v>
+        <v>306182.1082765595</v>
       </c>
       <c r="N6" t="n">
-        <v>437413.9444351519</v>
+        <v>437066.5651807949</v>
       </c>
       <c r="O6" t="n">
-        <v>437413.9444351522</v>
+        <v>437066.5651807946</v>
       </c>
       <c r="P6" t="n">
-        <v>437413.9444351518</v>
+        <v>437066.5651807946</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
+        <v>939.7063906498446</v>
+      </c>
+      <c r="D3" t="n">
         <v>939.7063906498445</v>
-      </c>
-      <c r="D3" t="n">
-        <v>939.7063906498448</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918289</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26992,16 +26992,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>71.50823675030364</v>
+        <v>7.019176603380629</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>129.0601564942287</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -27557,7 +27557,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27593,19 +27593,19 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>45.84850715904375</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>384.9095338765438</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>155.8320852371691</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>185.6438472372863</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18.78254937766465</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>282.2715910041945</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>106.077694438518</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27912,13 +27912,13 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="H10" t="n">
-        <v>66.34229919158462</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28064,16 +28064,16 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-7.333857380491618e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N12" t="n">
-        <v>187.2159464875253</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>344.2757660550399</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32098,10 +32098,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.8462560123214</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,22 +32794,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>379.5002789321571</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>456.5952253539618</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>463.4318227833011</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>447.0541449741276</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>268.4120005862524</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>327.2843391045531</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>457.671781199767</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352465</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>336.9735885949296</v>
       </c>
       <c r="L6" t="n">
-        <v>647.4981915352465</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>557.1022482807659</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225504</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.1266691917136</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352465</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>532.7551050146877</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N12" t="n">
-        <v>55.87423440419198</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899044</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>212.9340539717066</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35746,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.86448192629984</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36126,10 +36126,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>248.1585668488238</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>322.6208179396315</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>320.8355783388566</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1857709.378014152</v>
+        <v>1859469.908316936</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>405.2685620916635</v>
+        <v>377.4145926825142</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885155</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>228.8413640331347</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>172.736146193051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>255.6929381447002</v>
+        <v>47.30587796265407</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>205.5597675484896</v>
       </c>
       <c r="U7" t="n">
-        <v>100.5827519824193</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>248.6053471821649</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.1931710999804</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>60.86538463674658</v>
+        <v>60.86538463674702</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>108.5813113004301</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>7.069540131684477</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>11.56087338713365</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>140.7215037338436</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>115.4764219077142</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.890337106877502</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>46.52295781333198</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.593005428874</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>198.7323644553051</v>
+        <v>101.9154861872836</v>
       </c>
     </row>
     <row r="41">
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1279.054603647807</v>
+        <v>535.1642856087562</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.054603647807</v>
+        <v>535.1642856087562</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.054603647807</v>
+        <v>535.1642856087562</v>
       </c>
       <c r="E2" t="n">
-        <v>1279.054603647807</v>
+        <v>535.1642856087562</v>
       </c>
       <c r="F2" t="n">
-        <v>868.0686988581999</v>
+        <v>528.2187848595528</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272266</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
         <v>146.9919235640839</v>
@@ -4336,19 +4336,19 @@
         <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719127</v>
+        <v>730.2783389764052</v>
       </c>
       <c r="M2" t="n">
-        <v>1569.741154691807</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
         <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>2287.440977532828</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4357,25 +4357,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522572</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2005.289017179001</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1652.520361908887</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>1279.054603647807</v>
+        <v>925.303617584568</v>
       </c>
       <c r="Y2" t="n">
-        <v>1279.054603647807</v>
+        <v>535.1642856087562</v>
       </c>
     </row>
     <row r="3">
@@ -4391,40 +4391,40 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626825</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>669.9499323155136</v>
+        <v>794.7800573025183</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.044995703283</v>
+        <v>1435.803266922412</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136616</v>
+        <v>1721.137137355745</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>2349.865785191167</v>
       </c>
       <c r="P3" t="n">
         <v>2524.714615879285</v>
@@ -4445,7 +4445,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.6557187433658</v>
+        <v>535.947758155513</v>
       </c>
       <c r="C4" t="n">
-        <v>496.7195358154589</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="D4" t="n">
-        <v>346.6028964031232</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6898028207301</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4488,7 +4488,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4521,19 +4521,19 @@
         <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>1080.049416398361</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>825.3649281924736</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.785139324162</v>
+        <v>535.947758155513</v>
       </c>
       <c r="X4" t="n">
-        <v>1021.785139324162</v>
+        <v>535.947758155513</v>
       </c>
       <c r="Y4" t="n">
-        <v>847.3041835736055</v>
+        <v>535.947758155513</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2203.392926076864</v>
+        <v>1689.076413520797</v>
       </c>
       <c r="C5" t="n">
-        <v>1834.430409136452</v>
+        <v>1320.113896580385</v>
       </c>
       <c r="D5" t="n">
-        <v>1476.164710529702</v>
+        <v>961.848197973635</v>
       </c>
       <c r="E5" t="n">
-        <v>1090.376457931457</v>
+        <v>576.0599453753907</v>
       </c>
       <c r="F5" t="n">
-        <v>679.3905531418498</v>
+        <v>165.0740405857832</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719912</v>
@@ -4567,22 +4567,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135521</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477395</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="W5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="X5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="Y5" t="n">
-        <v>2589.992766140986</v>
+        <v>2075.676253584919</v>
       </c>
     </row>
     <row r="6">
@@ -4631,43 +4631,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>573.7192355186012</v>
+        <v>463.0684116980449</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349159</v>
+        <v>1104.091621317939</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127241</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1627.746635452984</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8526776630624</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="C7" t="n">
-        <v>201.9164947351555</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="D7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4755,22 +4755,22 @@
         <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1439.34754131702</v>
       </c>
       <c r="U7" t="n">
-        <v>1545.384930777697</v>
+        <v>1150.229764327418</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.70044257181</v>
+        <v>895.5452761215311</v>
       </c>
       <c r="W7" t="n">
-        <v>1001.28327253485</v>
+        <v>606.1281060845704</v>
       </c>
       <c r="X7" t="n">
-        <v>773.2937216368322</v>
+        <v>378.138555186553</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.501142493302</v>
+        <v>157.3459760430229</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>755.9562932262875</v>
+        <v>1087.019180569859</v>
       </c>
       <c r="C8" t="n">
-        <v>386.9937762858758</v>
+        <v>718.0566636294473</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8772639806586</v>
+        <v>718.0566636294473</v>
       </c>
       <c r="E8" t="n">
-        <v>135.8772639806586</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F8" t="n">
-        <v>128.9317632314552</v>
+        <v>63.44129308228372</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
@@ -4810,46 +4810,46 @@
         <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V8" t="n">
-        <v>2258.929878797415</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="W8" t="n">
-        <v>1906.161223527301</v>
+        <v>2237.224110870872</v>
       </c>
       <c r="X8" t="n">
-        <v>1532.695465266221</v>
+        <v>1863.758352609792</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.556133290409</v>
+        <v>1473.619020633981</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N9" t="n">
         <v>1652.830557277516</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.1359052451301</v>
+        <v>727.1359052451305</v>
       </c>
       <c r="C10" t="n">
-        <v>558.1997223172232</v>
+        <v>558.1997223172236</v>
       </c>
       <c r="D10" t="n">
-        <v>408.0830829048874</v>
+        <v>408.0830829048879</v>
       </c>
       <c r="E10" t="n">
-        <v>260.1699893224943</v>
+        <v>260.1699893224948</v>
       </c>
       <c r="F10" t="n">
-        <v>113.2800418245839</v>
+        <v>113.2800418245844</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -5001,13 +5001,13 @@
         <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1357.566500116917</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="X10" t="n">
         <v>1129.5769492189</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.7843700753698</v>
+        <v>908.7843700753702</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,16 +5056,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2337.284991357604</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.683526380545</v>
       </c>
       <c r="U13" t="n">
-        <v>1970.320130882545</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V13" t="n">
-        <v>1715.635642676658</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W13" t="n">
-        <v>1426.218472639697</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X13" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,16 +5275,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,13 +5360,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>414.4022433768874</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>247.2061440917674</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>105.4943129339655</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,16 +5834,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5989,13 +5989,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6074,16 +6074,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C28" t="n">
-        <v>527.7722521572603</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D28" t="n">
-        <v>377.6556127449245</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E28" t="n">
-        <v>377.6556127449245</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F28" t="n">
-        <v>377.6556127449245</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G28" t="n">
-        <v>210.4595134598044</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>99.7664985094643</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,22 +6545,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6782,16 +6782,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7025,10 +7025,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1097.958364892466</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>929.022181964559</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>778.9055425522232</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>630.9924489698301</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.1025014719197</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>316.9064021867997</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,16 +7256,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7548,19 +7548,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7645,13 +7645,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037393</v>
+        <v>207.0311336426206</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>348.4370131942334</v>
       </c>
       <c r="N2" t="n">
-        <v>138.4934316048494</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>191.0661938305875</v>
+        <v>380.892604166067</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>2.545322964049348</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>148.4266296017855</v>
+        <v>162.7491560325415</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.183091417757</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>72.44497470121448</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.1149342575596</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.70496293143188</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>111.4161395899844</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>75.37549921168804</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>205.614685510496</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0.7017074173498941</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.8522888967897</v>
+        <v>116.6691671648112</v>
       </c>
     </row>
     <row r="41">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>893263.3104955618</v>
+        <v>893263.3104955617</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>873172.0903518676</v>
+        <v>873172.0903518677</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>873172.0903518676</v>
+        <v>873172.0903518677</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>544823.9547907535</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907539</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.867745751</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,16 +26420,16 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26438,7 +26438,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
@@ -26459,7 +26459,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150961</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-634610.6549291577</v>
+        <v>-634610.6549291582</v>
       </c>
       <c r="C6" t="n">
-        <v>158890.9907817413</v>
+        <v>158890.9907817415</v>
       </c>
       <c r="D6" t="n">
-        <v>331655.3505716336</v>
+        <v>331655.3505716333</v>
       </c>
       <c r="E6" t="n">
-        <v>-63822.30256495609</v>
+        <v>-63509.66123603449</v>
       </c>
       <c r="F6" t="n">
-        <v>437066.5651807949</v>
+        <v>437379.2065097162</v>
       </c>
       <c r="G6" t="n">
-        <v>437066.5651807945</v>
+        <v>437379.206509716</v>
       </c>
       <c r="H6" t="n">
-        <v>437066.565180795</v>
+        <v>437379.206509716</v>
       </c>
       <c r="I6" t="n">
-        <v>437066.565180795</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="J6" t="n">
-        <v>267652.5483547465</v>
+        <v>267965.189683668</v>
       </c>
       <c r="K6" t="n">
-        <v>437066.565180795</v>
+        <v>437379.2065097156</v>
       </c>
       <c r="L6" t="n">
-        <v>437066.5651807947</v>
+        <v>437379.2065097161</v>
       </c>
       <c r="M6" t="n">
-        <v>306182.1082765595</v>
+        <v>306494.749605481</v>
       </c>
       <c r="N6" t="n">
-        <v>437066.5651807949</v>
+        <v>437379.2065097161</v>
       </c>
       <c r="O6" t="n">
-        <v>437066.5651807946</v>
+        <v>437379.206509716</v>
       </c>
       <c r="P6" t="n">
-        <v>437066.5651807946</v>
+        <v>437379.206509716</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>7.019176603380629</v>
+        <v>34.87314601252996</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
@@ -27593,10 +27593,10 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>57.40389670468431</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>45.84850715904375</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>155.8320852371691</v>
+        <v>364.2191454192153</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>15.14546116494878</v>
       </c>
       <c r="U7" t="n">
-        <v>185.6438472372863</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>106.077694438518</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.7371989722814</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>105.4310422139829</v>
+        <v>105.4310422139825</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31524,40 +31524,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,43 +31600,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>338.1920576279218</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226052</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32794,10 +32794,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,13 +34704,13 @@
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352464</v>
+        <v>447.0541449741277</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>447.0541449741276</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
         <v>387.1148251643756</v>
@@ -34786,7 +34786,7 @@
         <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
-        <v>457.671781199767</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
@@ -34795,7 +34795,7 @@
         <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>176.6149804930491</v>
       </c>
       <c r="Q3" t="n">
         <v>65.9375255168697</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>336.9735885949296</v>
+        <v>351.2961150256856</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35029,16 +35029,16 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225504</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>362.3108833671838</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,19 +35339,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>196.0580237059035</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>477.985332142731</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36126,10 +36126,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
